--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.84879502888192</v>
+        <v>90.00928200967518</v>
       </c>
       <c r="D2" t="n">
-        <v>2.163646507475255</v>
+        <v>2.482118387263733</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.62004361897874</v>
+        <v>89.21370153027375</v>
       </c>
       <c r="D3" t="n">
-        <v>2.231063209379972</v>
+        <v>2.256295444208619</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.99755781767027</v>
+        <v>88.0308701754744</v>
       </c>
       <c r="D4" t="n">
-        <v>2.270058165743326</v>
+        <v>1.985971677633298</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99120666147527</v>
+        <v>87.09087877756188</v>
       </c>
       <c r="D5" t="n">
-        <v>2.427905607859941</v>
+        <v>2.047636334436585</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.72246783012109</v>
+        <v>86.01774362849747</v>
       </c>
       <c r="D6" t="n">
-        <v>2.279858340890821</v>
+        <v>2.244654536699021</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.07166413120365</v>
+        <v>85.31283699680758</v>
       </c>
       <c r="D7" t="n">
-        <v>2.188026668849794</v>
+        <v>2.059585115768192</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.79870610613347</v>
+        <v>84.21395964185562</v>
       </c>
       <c r="D8" t="n">
-        <v>2.253528240452611</v>
+        <v>2.253013558212441</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.92215589393307</v>
+        <v>83.38282586398476</v>
       </c>
       <c r="D9" t="n">
-        <v>2.16931607145432</v>
+        <v>2.649827437214923</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.30347707742116</v>
+        <v>81.87006780090684</v>
       </c>
       <c r="D10" t="n">
-        <v>2.479771540983815</v>
+        <v>2.178062271862809</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.32529440620368</v>
+        <v>80.57792788353795</v>
       </c>
       <c r="D11" t="n">
-        <v>2.12608629589614</v>
+        <v>2.281192704848475</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.96169890472675</v>
+        <v>79.69970505775808</v>
       </c>
       <c r="D12" t="n">
-        <v>2.142057372315026</v>
+        <v>2.212187803047546</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92602770857965</v>
+        <v>79.38898140178954</v>
       </c>
       <c r="D13" t="n">
-        <v>2.392716722439435</v>
+        <v>2.301085723081689</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.34458896531086</v>
+        <v>78.17168008937944</v>
       </c>
       <c r="D14" t="n">
-        <v>2.078125576516046</v>
+        <v>2.183491046133286</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.62166107689765</v>
+        <v>77.09947960914404</v>
       </c>
       <c r="D15" t="n">
-        <v>2.479177778031991</v>
+        <v>2.278980692047427</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.73291444627688</v>
+        <v>75.83963535068133</v>
       </c>
       <c r="D16" t="n">
-        <v>2.269918586339556</v>
+        <v>2.526097225894118</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.29595039220665</v>
+        <v>74.85277869333349</v>
       </c>
       <c r="D17" t="n">
-        <v>2.448110133370087</v>
+        <v>2.523179256449102</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.00750072751339</v>
+        <v>73.33688654702901</v>
       </c>
       <c r="D18" t="n">
-        <v>2.356762128124492</v>
+        <v>2.169897980183745</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.72404306506394</v>
+        <v>72.47279601585649</v>
       </c>
       <c r="D19" t="n">
-        <v>2.356634391330477</v>
+        <v>2.34853782235129</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.55166572887804</v>
+        <v>71.59784495932952</v>
       </c>
       <c r="D20" t="n">
-        <v>2.583663448239786</v>
+        <v>2.607364804272602</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.84540849182299</v>
+        <v>70.75625058315066</v>
       </c>
       <c r="D21" t="n">
-        <v>2.409382310427373</v>
+        <v>2.667232466624968</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.98198273546956</v>
+        <v>70.06722979290798</v>
       </c>
       <c r="D22" t="n">
-        <v>2.122726810496723</v>
+        <v>2.528828277409062</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.6359205867944</v>
+        <v>68.82905165130975</v>
       </c>
       <c r="D23" t="n">
-        <v>2.50212692852255</v>
+        <v>2.167299847349377</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.99755073990823</v>
+        <v>68.20981669751416</v>
       </c>
       <c r="D24" t="n">
-        <v>2.45346298018784</v>
+        <v>2.315676429255069</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.86773529539435</v>
+        <v>67.1066892415617</v>
       </c>
       <c r="D25" t="n">
-        <v>2.401651333360442</v>
+        <v>2.53708531241478</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.73178110391925</v>
+        <v>65.99699363441022</v>
       </c>
       <c r="D26" t="n">
-        <v>2.54752135466428</v>
+        <v>2.06425372600823</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.99660428781661</v>
+        <v>65.47134286245547</v>
       </c>
       <c r="D27" t="n">
-        <v>2.834838447787746</v>
+        <v>2.419166524893939</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.02059339642743</v>
+        <v>64.20039960441768</v>
       </c>
       <c r="D28" t="n">
-        <v>2.630768445710086</v>
+        <v>2.064074749115276</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.67583331432113</v>
+        <v>63.35201867201301</v>
       </c>
       <c r="D29" t="n">
-        <v>2.578101727002484</v>
+        <v>2.632815897183097</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.67698798490363</v>
+        <v>62.38884805753295</v>
       </c>
       <c r="D30" t="n">
-        <v>2.685276395811505</v>
+        <v>2.62608412603063</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.8777721855654</v>
+        <v>60.95855606361183</v>
       </c>
       <c r="D31" t="n">
-        <v>2.191722427612681</v>
+        <v>2.945904700847003</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.55669542271793</v>
+        <v>60.11573839313499</v>
       </c>
       <c r="D32" t="n">
-        <v>2.330435152753232</v>
+        <v>2.461897057583223</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.23055677051039</v>
+        <v>59.4359953997573</v>
       </c>
       <c r="D33" t="n">
-        <v>2.242762639387561</v>
+        <v>2.203177390547749</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.95015534338472</v>
+        <v>57.73059729784764</v>
       </c>
       <c r="D34" t="n">
-        <v>2.554360093390396</v>
+        <v>2.611463497088564</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.0553320964988</v>
+        <v>56.97944239664548</v>
       </c>
       <c r="D35" t="n">
-        <v>2.299924210900686</v>
+        <v>2.702756355656703</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.69584394956133</v>
+        <v>55.85549190291525</v>
       </c>
       <c r="D36" t="n">
-        <v>2.760158017445536</v>
+        <v>2.462253744155995</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.80210586046984</v>
+        <v>55.11691438724313</v>
       </c>
       <c r="D37" t="n">
-        <v>2.59746685295057</v>
+        <v>2.449753201191449</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.6245154778786</v>
+        <v>53.72185795845729</v>
       </c>
       <c r="D38" t="n">
-        <v>2.620544601763859</v>
+        <v>2.084819823368763</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.23618867278259</v>
+        <v>52.66502279044833</v>
       </c>
       <c r="D39" t="n">
-        <v>2.737845559526729</v>
+        <v>2.701606737398298</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.98119081629298</v>
+        <v>51.6353554846194</v>
       </c>
       <c r="D40" t="n">
-        <v>2.768310134700909</v>
+        <v>2.878878808644146</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8933347924745</v>
+        <v>50.58157459165695</v>
       </c>
       <c r="D41" t="n">
-        <v>2.564784411306919</v>
+        <v>2.502337339932203</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.92631559461543</v>
+        <v>50.2351047325833</v>
       </c>
       <c r="D42" t="n">
-        <v>2.643808231031546</v>
+        <v>2.794391496926714</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.97509909090001</v>
+        <v>49.09326497605009</v>
       </c>
       <c r="D43" t="n">
-        <v>2.281071688755044</v>
+        <v>2.785651932807957</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.05170178566699</v>
+        <v>48.12624216570765</v>
       </c>
       <c r="D44" t="n">
-        <v>2.545032130126935</v>
+        <v>2.619788527699891</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.05602222155731</v>
+        <v>46.9170579931302</v>
       </c>
       <c r="D45" t="n">
-        <v>2.283080430965176</v>
+        <v>2.723737720552199</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84862262301181</v>
+        <v>46.40186280395135</v>
       </c>
       <c r="D46" t="n">
-        <v>2.710456955336558</v>
+        <v>2.34261622890755</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.7292750411299</v>
+        <v>45.34640824000923</v>
       </c>
       <c r="D47" t="n">
-        <v>2.501603875671715</v>
+        <v>2.683105632500932</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.70780989864985</v>
+        <v>44.13608976309353</v>
       </c>
       <c r="D48" t="n">
-        <v>2.658040402919357</v>
+        <v>2.497004255106985</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.30429534424405</v>
+        <v>42.6776552806155</v>
       </c>
       <c r="D49" t="n">
-        <v>2.752615473050505</v>
+        <v>2.56738679959483</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.68960111337648</v>
+        <v>42.05349819899382</v>
       </c>
       <c r="D50" t="n">
-        <v>2.478326264918508</v>
+        <v>2.749595951202964</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.75171289744269</v>
+        <v>41.44442341802267</v>
       </c>
       <c r="D51" t="n">
-        <v>2.532435174891974</v>
+        <v>2.768845807900687</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.68477024515062</v>
+        <v>40.33521943093427</v>
       </c>
       <c r="D52" t="n">
-        <v>2.986475193383344</v>
+        <v>2.548212662603411</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.43918419515412</v>
+        <v>39.25722128371937</v>
       </c>
       <c r="D53" t="n">
-        <v>2.671331226137094</v>
+        <v>2.300531888919096</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.97704976079835</v>
+        <v>37.73252527462467</v>
       </c>
       <c r="D54" t="n">
-        <v>2.567253686369996</v>
+        <v>2.363669779322291</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.64949700249977</v>
+        <v>36.59367693125274</v>
       </c>
       <c r="D55" t="n">
-        <v>2.769501614633771</v>
+        <v>2.405001235690888</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.78487748600448</v>
+        <v>36.05337451417885</v>
       </c>
       <c r="D56" t="n">
-        <v>2.587825686840255</v>
+        <v>2.848939594334427</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.65470606025929</v>
+        <v>35.11986074985548</v>
       </c>
       <c r="D57" t="n">
-        <v>2.454895887978477</v>
+        <v>2.786475143776284</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.84189543347448</v>
+        <v>33.48417504759693</v>
       </c>
       <c r="D58" t="n">
-        <v>2.53062536169458</v>
+        <v>2.613090875200837</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.79742320338678</v>
+        <v>32.84139973522359</v>
       </c>
       <c r="D59" t="n">
-        <v>2.711212873394095</v>
+        <v>2.274691121825142</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.646460828207</v>
+        <v>32.02786601346335</v>
       </c>
       <c r="D60" t="n">
-        <v>2.635462760811484</v>
+        <v>2.492830263412236</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02869338407142</v>
+        <v>31.01280255284647</v>
       </c>
       <c r="D61" t="n">
-        <v>2.760968652654023</v>
+        <v>2.748773479168049</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.11407652967271</v>
+        <v>30.59698269855438</v>
       </c>
       <c r="D62" t="n">
-        <v>2.590611881379915</v>
+        <v>2.917616317520642</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.35867421132751</v>
+        <v>28.97936558166849</v>
       </c>
       <c r="D63" t="n">
-        <v>2.645219584425412</v>
+        <v>2.978539214138786</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.19244939639826</v>
+        <v>27.85398314962644</v>
       </c>
       <c r="D64" t="n">
-        <v>2.531630120656372</v>
+        <v>2.696488893328179</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.79634083454914</v>
+        <v>27.24889888316889</v>
       </c>
       <c r="D65" t="n">
-        <v>2.631505163758119</v>
+        <v>2.508507093246836</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.66837775545248</v>
+        <v>26.477322449963</v>
       </c>
       <c r="D66" t="n">
-        <v>2.693874235232037</v>
+        <v>2.416613044433683</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.47929063022793</v>
+        <v>25.14544054954234</v>
       </c>
       <c r="D67" t="n">
-        <v>2.771823150105722</v>
+        <v>2.94754025646037</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.51692010875872</v>
+        <v>23.81640416773401</v>
       </c>
       <c r="D68" t="n">
-        <v>2.723206098116616</v>
+        <v>2.970149502549049</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.00240052479051</v>
+        <v>22.72896583478419</v>
       </c>
       <c r="D69" t="n">
-        <v>3.020090998669404</v>
+        <v>3.036845533272092</v>
       </c>
     </row>
   </sheetData>
